--- a/eoms-front/public/static/产品包装导入模板.xlsx
+++ b/eoms-front/public/static/产品包装导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,118 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>品号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装箱尺寸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈板包装箱数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层箱数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>托盘尺寸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外箱客户零件号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +148,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10 5 2 5 2" xfId="3"/>
+    <cellStyle name="常规 2 3 2 3" xfId="2"/>
+    <cellStyle name="常规 2 3 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +254,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +289,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +471,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>